--- a/test/storage-files/data/tasks.xlsx
+++ b/test/storage-files/data/tasks.xlsx
@@ -20,42 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">trid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentTid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tAssignees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d42</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">%trid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%parentTid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%tTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%tDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%tAssignees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%t17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%d17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%1 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%t37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%d37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%t42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%d42</t>
   </si>
 </sst>
 </file>
@@ -159,7 +174,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -189,48 +204,54 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>17</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
